--- a/_resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>条件名称</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>限制条件</t>
-  </si>
-  <si>
-    <t>条件类型备注</t>
   </si>
   <si>
     <t>key=Int,Id</t>
@@ -757,7 +754,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -855,131 +852,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
       </font>
       <fill>
@@ -996,8 +868,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1345,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1365,19 +1237,18 @@
     <col min="10" max="10" width="21.625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -1389,7 +1260,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1422,47 +1293,44 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1476,9 +1344,9 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1492,15 +1360,15 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>1</v>
@@ -1509,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>3</v>
@@ -1518,97 +1386,97 @@
         <v>4</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="17" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="J7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="L7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="E16" s="7"/>
@@ -1741,7 +1609,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A8:A65529">
-    <cfRule type="duplicateValues" dxfId="9" priority="25" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="25" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 A6">
     <cfRule type="duplicateValues" dxfId="4" priority="3" stopIfTrue="1"/>

--- a/_resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/K-框架-条件配置-(框架定义,策划填写).xlsx
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="2" shapeId="0">
+    <comment ref="G6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="2" shapeId="0">
+    <comment ref="H6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="2" shapeId="0">
+    <comment ref="I6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,63 +257,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 不受限制
-1 受地点条件限制</t>
+任意一个条件 用|分开 如:1|2|3
+所有条件满足 用&amp;分开 如:1&amp;2&amp;3</t>
         </r>
       </text>
     </comment>
     <comment ref="H7" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>PCC:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0 完成后不计数
-1 完成后持续计数
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>PCC:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-任意一个条件 用|分开 如:1|2|3
-所有条件满足 用&amp;分开 如:1&amp;2&amp;3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="2" shapeId="0">
+    <comment ref="I7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="2" shapeId="0">
+    <comment ref="J7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>条件名称</t>
   </si>
@@ -425,132 +374,118 @@
     <t>计数累计限制</t>
   </si>
   <si>
-    <t>完成后是否持续计数</t>
-  </si>
-  <si>
-    <t>动态计数的限制条件</t>
-  </si>
-  <si>
     <t>限制条件</t>
   </si>
   <si>
     <t>key=Int,Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cpp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>uint32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>conditiondefine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dynamiccondition</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>staticconditionList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>csharp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lua</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>动态限制条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>限制条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>限制条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Condition</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DoneType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DoneValue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Clean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlaceLimit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calculate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DynamicConditionLimit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StaticConditionLimit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StaticConditionLimit1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StaticConditionLimit2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xml=condition</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cpp=Condition</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>完成条件定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>清除计数条件定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -567,12 +502,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -685,11 +614,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,22 +642,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1217,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1231,343 +1157,298 @@
     <col min="4" max="4" width="12.375" style="5"/>
     <col min="5" max="5" width="10.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="7" max="7" width="18.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11">
-        <v>3</v>
-      </c>
-      <c r="G2" s="11">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11">
-        <v>1</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="I6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="17" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="B7" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="H7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="J7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="E18" s="7"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="E19" s="7"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="E20" s="7"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="E21" s="7"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="E22" s="7"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="E23" s="7"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="E24" s="7"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="E25" s="7"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="E26" s="7"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="E27" s="7"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="E28" s="7"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="E29" s="7"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="E30" s="7"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
@@ -1607,7 +1488,7 @@
       <c r="C44" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A8:A65529">
     <cfRule type="duplicateValues" dxfId="5" priority="25" stopIfTrue="1"/>
   </conditionalFormatting>
